--- a/2024_2025/NHLBoxScores.xlsx
+++ b/2024_2025/NHLBoxScores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42799988-3988-4308-A6FA-84806E9AB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E167359-BD7C-4EBE-81FD-E4B9E0074F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Scores Template" sheetId="3" r:id="rId3"/>
     <sheet name="Scores (10-4-24)" sheetId="8" r:id="rId4"/>
     <sheet name="Scores (10-5-24)" sheetId="9" r:id="rId5"/>
-    <sheet name="Offense (10-4-24)" sheetId="5" r:id="rId6"/>
-    <sheet name="Goalies (10-4-24)" sheetId="4" r:id="rId7"/>
-    <sheet name="Offense (10-5-24)" sheetId="6" r:id="rId8"/>
-    <sheet name="Rosters (Offense - 20)" sheetId="11" r:id="rId9"/>
+    <sheet name="Scores (10-8-24)" sheetId="15" r:id="rId6"/>
+    <sheet name="Offense (10-4-24)" sheetId="5" r:id="rId7"/>
+    <sheet name="Goalies (10-4-24)" sheetId="4" r:id="rId8"/>
+    <sheet name="Offense (10-5-24)" sheetId="6" r:id="rId9"/>
     <sheet name="Goalies (10-5-24)" sheetId="7" r:id="rId10"/>
     <sheet name="Rosters (Goalies - 3)" sheetId="12" r:id="rId11"/>
+    <sheet name="Offense (10-10-24)" sheetId="13" r:id="rId12"/>
+    <sheet name="Rosters (Offense - 20)" sheetId="11" r:id="rId13"/>
+    <sheet name="Goalies (10-10-24)" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="217">
   <si>
     <t>April</t>
   </si>
@@ -676,6 +679,27 @@
   </si>
   <si>
     <t>Mattias Samuelsson</t>
+  </si>
+  <si>
+    <t>Jiri Kulich</t>
+  </si>
+  <si>
+    <t>Peyton Krebs</t>
+  </si>
+  <si>
+    <t>Kurtis MacDermid</t>
+  </si>
+  <si>
+    <t>Devon Levi</t>
+  </si>
+  <si>
+    <t>Jake Allen</t>
+  </si>
+  <si>
+    <t>October 8th 2024</t>
+  </si>
+  <si>
+    <t>Utah Hockey Club</t>
   </si>
 </sst>
 </file>
@@ -947,20 +971,20 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1300,7 +1324,7 @@
   <dimension ref="A1:AA191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1313,10 +1337,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="AA1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1329,7 +1353,7 @@
         <v>84</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1340,299 +1364,303 @@
         <v>84</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="16">
+        <v>45573</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="AA4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="3"/>
       <c r="AA5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="3"/>
       <c r="AA6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="3"/>
       <c r="AA7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="3"/>
       <c r="AA8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="3"/>
       <c r="AA9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="AA10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="AA11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="AA12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="AA13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="3"/>
       <c r="AA14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="3"/>
       <c r="AA15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="AA16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="3"/>
       <c r="AA17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="3"/>
       <c r="AA18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="3"/>
       <c r="AA19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="AA20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="3"/>
       <c r="AA21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="3"/>
       <c r="AA22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="3"/>
       <c r="AA23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="AA24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="AA25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="3"/>
       <c r="AA26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="3"/>
       <c r="AA27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="3"/>
       <c r="AA28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="3"/>
       <c r="AA29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="3"/>
       <c r="AA30" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="3"/>
       <c r="AA31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="3"/>
       <c r="AA32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="21"/>
     </row>
     <row r="54" spans="1:2" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
@@ -1747,10 +1775,10 @@
       <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="1:2" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
@@ -1877,10 +1905,10 @@
       <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="21"/>
     </row>
     <row r="115" spans="1:2" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
@@ -1983,10 +2011,10 @@
       <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="20"/>
+      <c r="A140" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="21"/>
     </row>
     <row r="141" spans="1:2" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18"/>
@@ -2113,10 +2141,10 @@
       <c r="B171" s="3"/>
     </row>
     <row r="172" spans="1:2" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172" s="20"/>
+      <c r="A172" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="21"/>
     </row>
     <row r="173" spans="1:2" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
@@ -2192,6 +2220,9 @@
     </row>
     <row r="191" spans="1:2" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AA1:AA24">
+    <sortCondition ref="AA1:AA32"/>
+  </sortState>
   <mergeCells count="7">
     <mergeCell ref="A172:B172"/>
     <mergeCell ref="A140:B140"/>
@@ -2212,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDF2A19-0270-4227-99AF-0512179FAFC1}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -2226,7 +2257,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -2267,22 +2298,93 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.3652777777777776</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K7" s="14"/>
     </row>
   </sheetData>
@@ -2299,7 +2401,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,34 +2426,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2417,7 +2519,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>54</v>
@@ -2460,6 +2562,12 @@
       <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>197</v>
       </c>
@@ -2501,34 +2609,34 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="19" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -2704,34 +2812,34 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19" t="s">
+      <c r="J14" s="21"/>
+      <c r="K14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="19" t="s">
+      <c r="L14" s="21"/>
+      <c r="M14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="20"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
@@ -2797,7 +2905,7 @@
         <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>54</v>
@@ -2840,6 +2948,12 @@
       <c r="F17" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>161</v>
       </c>
@@ -2893,34 +3007,34 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="19" t="s">
+      <c r="J20" s="21"/>
+      <c r="K20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="19" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
@@ -3094,22 +3208,22 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
@@ -3211,20 +3325,8 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
@@ -3241,9 +3343,926 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690468A1-8C33-4A16-B6ED-F5784ACE9420}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="15"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (10-5-24)'!A1" display="HOME" xr:uid="{A7EA33A5-7C34-4B04-AFF9-09FDFA92A650}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB61A653-C60B-466A-94D1-C7D41CF5A0F2}">
+  <dimension ref="A1:N95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="26.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="23.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="21"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="21"/>
+      <c r="M47" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="21"/>
+      <c r="I70" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="21"/>
+      <c r="K70" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="21"/>
+      <c r="M70" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N70" s="21"/>
+    </row>
+    <row r="71" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E90" s="19"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="21"/>
+      <c r="E93" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="21"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88EE165-F6EE-45B1-B497-C187CF1734FE}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (10-5-24)'!A1" display="HOME" xr:uid="{959BF3E5-73B1-48FA-8AE1-65E49A0F8006}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3254,7 +4273,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3381,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -3476,7 +4495,7 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,12 +4508,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
@@ -3667,12 +4686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
@@ -3755,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BB434A-62E8-4981-9FFD-E15281F43EBD}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,12 +4788,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
@@ -3800,10 +4819,18 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -3846,6 +4873,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4377AEF2-176F-443A-AB82-6CC7F72A5DFF}">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{C77C418A-576F-4547-868A-01CA1A458D1B}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{4AD06F5C-C15C-4627-A505-1C5DA5838B02}"/>
+    <hyperlink ref="A6" location="'Offense (10-10-23)'!A1" display="Offense" xr:uid="{DD7D8D92-3E7A-422B-8666-85B23D0A2561}"/>
+    <hyperlink ref="A7" location="'Goalies (10-10-23)'!A1" display="Goalies" xr:uid="{435F25A4-3C56-45A8-9391-C55B69E37A3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{968956E8-7B03-47B2-A380-CB450879EF97}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5 A3:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9F52C-4A3A-44E0-BBDC-950685570BE6}">
   <dimension ref="A1:U37"/>
   <sheetViews>
@@ -6174,12 +7319,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAF5206-6C7C-473B-8F0B-07B9A3759B8D}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6328,13 +7473,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E44F2A-7C41-4267-8F88-1A2227671FD4}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6342,8 +7485,10 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="15"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="17" width="9.140625" style="15"/>
+    <col min="18" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -6411,718 +7556,2297 @@
         <v>55</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>29</v>
+      </c>
+      <c r="P2" s="15">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R2" s="15">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="S2" s="15">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>29</v>
+      </c>
+      <c r="P3" s="15">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>13</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.35138888888888886</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>21</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0.38472222222222224</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>27</v>
+      </c>
+      <c r="P6" s="15">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>0.15486111111111112</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="S6" s="15">
+        <v>6</v>
+      </c>
+      <c r="T6" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>27</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
+      </c>
+      <c r="P8" s="15">
+        <v>3.6111111111111108E-2</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>17</v>
+      </c>
+      <c r="P9" s="15">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>17</v>
+      </c>
+      <c r="P11" s="15">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15">
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>19</v>
+      </c>
+      <c r="P12" s="15">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="15">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0.20208333333333334</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="S13" s="15">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>28</v>
+      </c>
+      <c r="P14" s="15">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>6.25E-2</v>
+      </c>
+      <c r="R14" s="15">
+        <v>0.88055555555555554</v>
+      </c>
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>20</v>
+      </c>
+      <c r="P15" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="S15" s="15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>30</v>
+      </c>
+      <c r="P16" s="15">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0.86527777777777781</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>24</v>
+      </c>
+      <c r="P17" s="15">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="S17" s="15">
+        <v>5</v>
+      </c>
+      <c r="T17" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>17</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="S18" s="15">
+        <v>1</v>
+      </c>
+      <c r="T18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>29</v>
+      </c>
+      <c r="P19" s="15">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="S19" s="15">
+        <v>5</v>
+      </c>
+      <c r="T19" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>9</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>22</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>15</v>
+      </c>
+      <c r="P21" s="15">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="R21" s="15">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="S21" s="15">
+        <v>3</v>
+      </c>
+      <c r="T21" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1">
+        <v>26</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0.74236111111111114</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>25</v>
+      </c>
+      <c r="P23" s="15">
+        <v>0.12291666666666666</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>4.791666666666667E-2</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="S23" s="15">
+        <v>0</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>19</v>
+      </c>
+      <c r="P24" s="15">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0.37013888888888891</v>
+      </c>
+      <c r="S24" s="15">
+        <v>6</v>
+      </c>
+      <c r="T24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>21</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="R25" s="15">
+        <v>0.57013888888888886</v>
+      </c>
+      <c r="S25" s="15">
+        <v>0</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>24</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0.20277777777777778</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="S26" s="15">
+        <v>1</v>
+      </c>
+      <c r="T26" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>31</v>
+      </c>
+      <c r="P27" s="15">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>32</v>
+      </c>
+      <c r="P28" s="15">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0.89513888888888893</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="S29" s="15">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>15</v>
+      </c>
+      <c r="P30" s="15">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0.40833333333333333</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <v>27</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="R31" s="15">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="S31" s="15">
+        <v>21</v>
+      </c>
+      <c r="T31" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>20</v>
+      </c>
+      <c r="P32" s="15">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>17</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>0</v>
+      </c>
+      <c r="R33" s="15">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>18</v>
+      </c>
+      <c r="P34" s="15">
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="R34" s="15">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="S34" s="15">
+        <v>0</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>18</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="S35" s="15">
+        <v>2</v>
+      </c>
+      <c r="T35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>22</v>
+      </c>
+      <c r="P36" s="15">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>0</v>
+      </c>
+      <c r="R36" s="15">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2</v>
+      </c>
+      <c r="O37" s="1">
+        <v>24</v>
+      </c>
+      <c r="P37" s="15">
+        <v>9.375E-2</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:T37">
+    <sortCondition ref="A20:A37"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="U1" location="'Scores (10-5-24)'!A1" display="HOME" xr:uid="{34336D13-DDC9-410E-B880-65561C79EE4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB61A653-C60B-466A-94D1-C7D41CF5A0F2}">
-  <dimension ref="A1:N95"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="26.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="23.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="20"/>
-      <c r="M47" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N48" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G51" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G62" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G64" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G65" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="20"/>
-      <c r="I70" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="20"/>
-      <c r="K70" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" s="20"/>
-      <c r="M70" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N70" s="20"/>
-    </row>
-    <row r="71" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N71" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E90" s="23"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="20"/>
-      <c r="E93" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="20"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>